--- a/EXCEL REPORT/DMD-VENDOR-INVOICE.xlsx
+++ b/EXCEL REPORT/DMD-VENDOR-INVOICE.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="150" windowWidth="20055" windowHeight="7935"/>
@@ -25,9 +25,6 @@
     <t>Tanggal</t>
   </si>
   <si>
-    <t>DIAMOND VENDOR INVOICE REPORT</t>
-  </si>
-  <si>
     <t>Kode Invoice</t>
   </si>
   <si>
@@ -92,16 +89,19 @@
   </si>
   <si>
     <t>Diamond Purchased</t>
+  </si>
+  <si>
+    <t>DIAMOND VENDOR INVOICE REPORT ( 1 Jan 2015 - 31 Jan 2015 )</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
-  <fonts count="19">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -675,6 +675,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -753,6 +758,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -787,6 +793,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -962,14 +969,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7.140625" customWidth="1"/>
     <col min="2" max="2" width="23.7109375" customWidth="1"/>
@@ -983,63 +990,63 @@
     <col min="10" max="10" width="48.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75">
+    <row r="1" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="4"/>
       <c r="B1" s="2" t="s">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="C1" s="2"/>
     </row>
-    <row r="3" spans="1:10" ht="33" customHeight="1">
+    <row r="3" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>2</v>
       </c>
       <c r="D3" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="F3" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H3" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="I3" s="7" t="s">
-        <v>7</v>
-      </c>
       <c r="J3" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="5" customFormat="1" ht="30">
+    <row r="4" spans="1:10" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>1</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C4" s="3">
         <v>42233</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>1</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G4" s="1">
         <v>7.55</v>
@@ -1048,13 +1055,13 @@
         <v>11864.17</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -1065,13 +1072,13 @@
         <v>41652</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>1</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G5" s="1">
         <v>7.75</v>
@@ -1080,30 +1087,30 @@
         <v>81185.919999999998</v>
       </c>
       <c r="I5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="J5" s="1" t="s">
-        <v>19</v>
-      </c>
     </row>
-    <row r="6" spans="1:10" s="5" customFormat="1" ht="30">
+    <row r="6" spans="1:10" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>3</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C6" s="3">
         <v>41609</v>
       </c>
       <c r="D6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>22</v>
       </c>
       <c r="G6" s="1">
         <v>6.06</v>
@@ -1112,10 +1119,10 @@
         <v>5578.28</v>
       </c>
       <c r="I6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J6" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>24</v>
       </c>
     </row>
   </sheetData>
